--- a/weibo_posts.xlsx
+++ b/weibo_posts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -585,6 +585,426 @@
         <v>5180725963787649</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>王小羽XY_badminton</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>想赢，但毫无办法…#羽毛球##苏羽百分大战##奥林匹克日# L王小羽XY_badminton的微博视频 ​</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>5181844363677547</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BWF世界羽联</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>@陈雨菲起Faye 赛后采访“很振奋人心的一场比赛，她今年的表现非常好，她今天的表现也很稳定。能赢下她对我，对我们整个中国女单的强心剂吧。”“（把比赛）当做训练，心态放得比较平稳，向她学习，挑战她。”#陈雨菲晋级新加坡公开赛4强##2025年新加坡羽毛球公开赛# LBWF世界羽联的微博视频 ​</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>5171999418091725</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NOMOREICEWATER</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>梁王驾到超话  2024中国羽毛球公开赛 球星面对面专访7分钟完整版 加了字幕 很多内容再看一遍还是很感慨 想念畅所欲言的小哥俩 LNOMOREICEWATER的微博视频 ​</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>5181523549751366</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>郑思维---</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>一个羽毛球运动员当爹后的三年 L郑思维---的微博视频 ​</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>5178577029957158</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>精神病院派来的猴子</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>陈雨菲2比0安洗莹（13，16）晋级2025新加坡羽毛球公开赛女单半决赛恭喜雨菲用自己的20连胜终结了安洗莹今年的27连胜两个人的头对头也来到了13：11#陈雨菲横扫安洗莹##赛事集锦#  L精神病院派来的猴子的微博视频 ​</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>5171987431558791</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>小星星侃大山</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>陈清晨和沙西丽对练 L小星星侃大山的微博视频 ​</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>5181505156683203</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>奥林匹克运动会</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>【奥林匹克庆生屋】今天是#羽毛球# 奥运冠军陈清晨@陈小白BAOBAO 的生日🎂🥇🥈 陈清晨与@贾一凡_F 搭档参加了两届奥运会，获得了1金1银🏸 一起回顾陈清晨的奥运精彩时刻，为她送上生日祝福吧！#奥运会# L奥林匹克运动会的微博视频 ​</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>5180668988359533</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>鲨糖橘果酱</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2024年法国羽毛球公开赛，石宇奇夺冠时刻，好想再多看几次这样的石头！！ L鲨糖橘果酱的微博视频 ​</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>5181531279590845</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>安苒badminton</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>6月17日至22日在泰国亚洲残疾人羽毛球锦标赛上福建运动员李凤梅荣获羽毛球SH6女单、女双、混双三项冠军🏆视频为李凤梅在女单比赛中都是很优秀的存在！#羽毛球##热点现场# L安苒badminton的微博视频 ​</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>5181164740152366</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>原价帝吧</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>「实锤！玩偶姐姐亲自承认——网传“王佳乐”证件照为其本人！」#张某某将可能涉嫌多项罪名#近日，玩偶姐姐HongKongDoll本人承认此前网传的王佳乐证件照为其本人！这张证件照起源于今年年初，有一张“百位网红大拜年”的相片曝光了，100位网红的证件照呈现在了大家面前。这里面就有玩偶姐姐，从证 ​  展开c</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>5127179224227305</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>罗浩志疮栓</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>玩偶姐姐的自述 ​</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>5180420490789372</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>肖曼林</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>4月1日，玩偶姐姐限时露脸？？？ ​​​</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>5150916719676570</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>就是笑开颜</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>知名网络红人，玩偶姐姐你看过她的作品吗？ L就是笑开颜的微博视频 ​</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>5040523045766213</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>比特傻</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>得知玩.偶姐姐年入几千万，傻哥还是有点吃惊于女性红利她到底是天赋异禀？还是基础素质达到后放得开就行？ ​</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>5175557910169699</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>碧根果43</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>果果老师🙋我想求玩偶姐姐的作品！！求求了。匿匿匿 ​</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>5176013214450080</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>明星校花</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>玩偶姐姐长这样？？？ ​</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>5167925276968409</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>iikjsh</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>天啊这小孩不一般，趴在她姐姐的玩偶上拍照 ​</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>5170602524546182</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>BANPRESTO</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>aespa超话#BANPRESTO##新品情报##小小谷努咪# 姐姐们的可爱进一步升级啦！这次更是以对应的玩偶形象登陆小小谷努咪系列❤aespa 小小谷努咪 玩偶形象ver.KARINA，GISELLE，WINTER，NINGNING4款小小谷努咪现已登陆天猫万代官方旗舰店@万代-BANDAI 每款都可以单领，618活动期间还可以享受顺丰 ​  展开c</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>5178945307673328</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>TaeRaeee</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>来儿和姐姐的故事🐥我们姐姐到处隐瞒她是我姐姐的事实嘿嘿嘿嘿嘿嘿嘿嘿🐥姐姐本来就很酷🐥我和姐姐关系很好嘿嘿嘿嘿🐥练习生时期有一半的时间都住在姐姐家🐥那个流氓兔玩偶本来是姐姐的🐥当然是传下来的嘿嘿嘿嘿那个玩偶🐥和姐姐吵架是不可能的！🐥姐姐在跆拳道大赛中获了很 ​  展开c</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>5165893420584185</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>帮主私藏</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>成人展河北彩花与粉丝合影 L帮主私藏的微博视频 ​</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>5157618579940814</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>桀桀桀尼龟</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>河北彩花  图书管理员 ​</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>5179531133976591</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>霓虹非夜热</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>一段河北彩花在香港综艺节目上的即兴演唱，感受下女神不一样的温柔。 LHotDoor100的微博视频 ​</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>4989340810218772</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>网瘾御姐</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>感觉河北彩花好大只啊，小宵虎南都显得小巧玲珑了，新有菜说话最可爱  ​​​ L网瘾御姐的微博视频 ​</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>5066481300147863</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>傻子笙歌</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>河北彩花采访被问：从事这个工作，亲友是什么反应？ L傻子笙歌的微博视频 ​</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>5178640075331085</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>寻花部落</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>河北彩花采访被问：从事这个工作，亲友是什么反应？ L寻花部落的微博视频 ​</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>5178111616353035</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>道叔bot</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>河北彩花专访：从事这个工作，亲友的反应。 L道叔bot的微博视频 ​</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>5178074200018950</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>番牌君</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>论颜值，河北彩花确实顶级 L番牌君的微博视频 ​</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>5178430263133378</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>黄西炮</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>给你个机会，你愿意娶河北彩花为妻吗？ L黄西炮的微博视频 ​</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>5179209312112245</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
